--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimj16\Documents\497\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECCEAD9-78FE-4B35-8941-F0CCAB62A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07E3B9-BA7D-453B-87BC-5D45AF7C3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="14808" windowHeight="10116" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
@@ -99,12 +99,6 @@
     <t>undergraduate</t>
   </si>
   <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>african-american</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -465,15 +465,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224585FE-606B-4F40-9ACE-2F85812D2681}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -2530,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2554,7 +2554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2563,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -2578,7 +2578,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECCEAD9-78FE-4B35-8941-F0CCAB62A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A17CC-4682-455E-A969-6BA7FDCA83BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="98" yWindow="98" windowWidth="21585" windowHeight="13665" firstSheet="1" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Enrollment_by_Race" sheetId="2" r:id="rId2"/>
+    <sheet name="Admission_General" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>full-time</t>
   </si>
@@ -112,6 +113,48 @@
   </si>
   <si>
     <t>african-american</t>
+  </si>
+  <si>
+    <t>applied</t>
+  </si>
+  <si>
+    <t>admitted</t>
+  </si>
+  <si>
+    <t>enrolled</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>waiting-list-policy</t>
+  </si>
+  <si>
+    <t>accepted-list</t>
+  </si>
+  <si>
+    <t>offered-list</t>
+  </si>
+  <si>
+    <t>admitted-list</t>
+  </si>
+  <si>
+    <t>list-rank</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>High school diploma is required and GED is not accepted</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>completion-requirement</t>
+  </si>
+  <si>
+    <t>college-preparatory-program</t>
   </si>
 </sst>
 </file>
@@ -466,12 +509,12 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -521,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>387</v>
       </c>
@@ -571,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>143</v>
       </c>
@@ -621,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -671,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -721,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>9</v>
       </c>
@@ -771,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -821,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -871,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -921,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1082</v>
       </c>
@@ -971,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>329</v>
       </c>
@@ -1021,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1071,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1121,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1478</v>
       </c>
@@ -1171,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>474</v>
       </c>
@@ -1221,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1271,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1321,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1371,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1421,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1471,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1521,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1478</v>
       </c>
@@ -1571,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>474</v>
       </c>
@@ -1621,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1671,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1721,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1771,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1821,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1871,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1921,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1971,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2021,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2071,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2121,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2171,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2221,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2271,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2321,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2371,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2421,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2471,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2530,29 +2573,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.46484375" customWidth="1"/>
+    <col min="14" max="14" width="14.19921875" customWidth="1"/>
+    <col min="15" max="15" width="12.46484375" customWidth="1"/>
+    <col min="16" max="16" width="10.1328125" customWidth="1"/>
+    <col min="17" max="17" width="13.1328125" customWidth="1"/>
+    <col min="18" max="18" width="10.1328125" customWidth="1"/>
+    <col min="19" max="19" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2605,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>36</v>
       </c>
@@ -2658,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>226</v>
       </c>
@@ -2711,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>34</v>
       </c>
@@ -2764,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2817,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>31</v>
       </c>
@@ -2870,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>93</v>
       </c>
@@ -2923,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>356</v>
       </c>
@@ -2976,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1295</v>
       </c>
@@ -3029,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3082,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3135,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>36</v>
       </c>
@@ -3188,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>127</v>
       </c>
@@ -3241,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3294,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3347,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>31</v>
       </c>
@@ -3400,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>99</v>
       </c>
@@ -3453,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
@@ -3506,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>22</v>
       </c>
@@ -3559,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>531</v>
       </c>
@@ -3612,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1969</v>
       </c>
@@ -3662,6 +3705,821 @@
         <v>1</v>
       </c>
       <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D4B72-03FE-4F80-88F5-3828CC0228BC}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>3338</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1038</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2502</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>851</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>401</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>145</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
     </row>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimj16\Documents\497\rhit_IRPA_2023\CDSData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07E3B9-BA7D-453B-87BC-5D45AF7C3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39C4D2F-BEF3-404B-BACE-8BB153956527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="14808" windowHeight="10116" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
@@ -465,11 +465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224585FE-606B-4F40-9ACE-2F85812D2681}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2530,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39C4D2F-BEF3-404B-BACE-8BB153956527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE83E6F-F965-46EB-A694-0A806B1ECDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
-    <sheet name="Enrollment_by_Race" sheetId="2" r:id="rId2"/>
+    <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -465,13 +465,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224585FE-606B-4F40-9ACE-2F85812D2681}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -2533,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE83E6F-F965-46EB-A694-0A806B1ECDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C0D26-DB73-4E26-846C-BCC354429501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="10536" yWindow="504" windowWidth="15336" windowHeight="8040" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
+    <sheet name="High_School_Units" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>full-time</t>
   </si>
@@ -112,6 +135,45 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab </t>
+  </si>
+  <si>
+    <t>foreign-language</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>academic-electives</t>
+  </si>
+  <si>
+    <t>computer-science</t>
+  </si>
+  <si>
+    <t>visual/performing-arts</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>units-required</t>
+  </si>
+  <si>
+    <t>units-recommended</t>
+  </si>
+  <si>
+    <t>social-studies</t>
   </si>
 </sst>
 </file>
@@ -465,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224585FE-606B-4F40-9ACE-2F85812D2681}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -3674,4 +3736,1054 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730CC96F-1BE5-456B-A223-D1A7FDC98783}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">B6:N60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">B8:N62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">B10:N64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">B12:N66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">B14:N68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">B16:N70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">B18:N72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">B20:N74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">B22:N76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C0D26-DB73-4E26-846C-BCC354429501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D35B4F5-0420-44A1-89EF-AE3BEC9964B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10536" yWindow="504" windowWidth="15336" windowHeight="8040" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
-    <sheet name="High_School_Units" sheetId="3" r:id="rId3"/>
+    <sheet name="High_School_Units" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3739,27 +3739,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730CC96F-1BE5-456B-A223-D1A7FDC98783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8EDBC5-1947-42D8-8612-3F660123C619}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4023,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="N6" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">B6:N60</f>
+        <f t="array" aca="1" ref="N6" ca="1">B6:N23</f>
         <v>0</v>
       </c>
     </row>
@@ -4112,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="N8" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">B8:N62</f>
+        <f t="array" aca="1" ref="N8" ca="1">B8:N23</f>
         <v>0</v>
       </c>
     </row>
@@ -4201,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="N10" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">B10:N64</f>
+        <f t="array" aca="1" ref="N10" ca="1">B10:N23</f>
         <v>0</v>
       </c>
     </row>
@@ -4289,8 +4291,7 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">B12:N66</f>
+      <c r="N12">
         <v>0</v>
       </c>
     </row>
@@ -4379,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="N14" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">B14:N68</f>
+        <f t="array" aca="1" ref="N14" ca="1">B14:N23</f>
         <v>0</v>
       </c>
     </row>
@@ -4468,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="N16" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">B16:N70</f>
+        <f t="array" aca="1" ref="N16" ca="1">B16:N23</f>
         <v>0</v>
       </c>
     </row>
@@ -4557,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="N18" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">B18:N72</f>
+        <f t="array" aca="1" ref="N18" ca="1">B18:N23</f>
         <v>0</v>
       </c>
     </row>
@@ -4646,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="N20" cm="1">
-        <f t="array" aca="1" ref="N20" ca="1">B20:N74</f>
+        <f t="array" aca="1" ref="N20" ca="1">B20:N23</f>
         <v>0</v>
       </c>
     </row>
@@ -4735,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="N22" cm="1">
-        <f t="array" aca="1" ref="N22" ca="1">B22:N76</f>
+        <f t="array" aca="1" ref="N22" ca="1">B22:N23</f>
         <v>0</v>
       </c>
     </row>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A17CC-4682-455E-A969-6BA7FDCA83BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21418E61-C75B-4926-B0C1-0DE3CD227089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="98" yWindow="98" windowWidth="21585" windowHeight="13665" firstSheet="1" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>full-time</t>
   </si>
@@ -3715,65 +3715,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D4B72-03FE-4F80-88F5-3828CC0228BC}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3338</v>
       </c>
@@ -3781,19 +3787,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3822,8 +3828,14 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1038</v>
       </c>
@@ -3834,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3843,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3872,8 +3884,14 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2502</v>
       </c>
@@ -3881,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3896,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3922,8 +3940,14 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>851</v>
       </c>
@@ -3934,19 +3958,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3972,19 +3996,25 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>401</v>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3993,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4008,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4022,19 +4052,25 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4043,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4061,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -4072,16 +4108,22 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4093,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4114,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -4122,16 +4164,22 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4143,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4167,15 +4215,21 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4202,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4220,12 +4274,18 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>35</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4255,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4272,10 +4332,16 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>43</v>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4308,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4322,204 +4388,10 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>1</v>
       </c>
     </row>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21418E61-C75B-4926-B0C1-0DE3CD227089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAC48AF-CA70-4192-8327-C859BBA9781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>full-time</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>waiting-list-policy</t>
-  </si>
-  <si>
     <t>accepted-list</t>
   </si>
   <si>
@@ -155,6 +152,12 @@
   </si>
   <si>
     <t>college-preparatory-program</t>
+  </si>
+  <si>
+    <t>waiting-list</t>
+  </si>
+  <si>
+    <t>policy</t>
   </si>
 </sst>
 </file>
@@ -3715,15 +3718,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D4B72-03FE-4F80-88F5-3828CC0228BC}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3758,28 +3761,31 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
         <v>30</v>
       </c>
       <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3338</v>
       </c>
@@ -3834,8 +3840,11 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1038</v>
       </c>
@@ -3890,8 +3899,11 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2502</v>
       </c>
@@ -3946,8 +3958,11 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>851</v>
       </c>
@@ -4002,8 +4017,11 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4041,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -4058,8 +4076,11 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>119</v>
       </c>
@@ -4094,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -4114,8 +4135,11 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>43</v>
       </c>
@@ -4150,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4170,8 +4194,11 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>14</v>
       </c>
@@ -4206,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4215,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4226,123 +4253,132 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
       <c r="B12">
         <v>0</v>
       </c>
@@ -4392,6 +4428,9 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>1</v>
       </c>
     </row>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAC48AF-CA70-4192-8327-C859BBA9781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD02038-EC46-4E12-9422-433AF459A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9983" firstSheet="1" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>full-time</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>policy</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -3721,7 +3727,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3740,10 +3746,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\76758\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD02038-EC46-4E12-9422-433AF459A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC8AA54-AE04-4800-A630-9A13410DCCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9983" firstSheet="1" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="6562" yWindow="1163" windowWidth="16201" windowHeight="9982" firstSheet="1" activeTab="3" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
-    <sheet name="Enrollment_by_Race" sheetId="2" r:id="rId2"/>
-    <sheet name="Admission_General" sheetId="3" r:id="rId3"/>
+    <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
+    <sheet name="High_School_Units" sheetId="3" r:id="rId3"/>
+    <sheet name="Admission_General" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>full-time</t>
   </si>
@@ -100,12 +123,6 @@
     <t>undergraduate</t>
   </si>
   <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -113,6 +130,51 @@
   </si>
   <si>
     <t>african-american</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab </t>
+  </si>
+  <si>
+    <t>foreign-language</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>academic-electives</t>
+  </si>
+  <si>
+    <t>computer-science</t>
+  </si>
+  <si>
+    <t>visual/performing-arts</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>units-required</t>
+  </si>
+  <si>
+    <t>units-recommended</t>
+  </si>
+  <si>
+    <t>social-studies</t>
   </si>
   <si>
     <t>applied</t>
@@ -124,19 +186,31 @@
     <t>enrolled</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>waiting-list</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>offered-list</t>
   </si>
   <si>
     <t>accepted-list</t>
-  </si>
-  <si>
-    <t>offered-list</t>
   </si>
   <si>
     <t>admitted-list</t>
   </si>
   <si>
     <t>list-rank</t>
+  </si>
+  <si>
+    <t>completion-requirement</t>
+  </si>
+  <si>
+    <t>college-preparatory-program</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
@@ -146,24 +220,6 @@
   </si>
   <si>
     <t>Require</t>
-  </si>
-  <si>
-    <t>completion-requirement</t>
-  </si>
-  <si>
-    <t>college-preparatory-program</t>
-  </si>
-  <si>
-    <t>waiting-list</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>male</t>
   </si>
 </sst>
 </file>
@@ -518,14 +574,20 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
+    <col min="11" max="11" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.46484375" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -540,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -2583,7 +2645,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2606,7 +2668,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2615,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -2630,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -3723,18 +3785,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D4B72-03FE-4F80-88F5-3828CC0228BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730CC96F-1BE5-456B-A223-D1A7FDC98783}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.46484375" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">B6:N60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">B8:N62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">B10:N64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">B12:N66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">B14:N68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">B16:N70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">B18:N72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">B20:N74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">B22:N76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897E1FB4-1E80-411C-BF1E-70CD5264E79E}">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -3746,49 +4858,49 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -4029,7 +5141,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4265,7 +5377,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4324,7 +5436,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4383,7 +5495,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\76758\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC8AA54-AE04-4800-A630-9A13410DCCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C075C0B-B67D-42ED-84F2-3FC7C51A2F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6562" yWindow="1163" windowWidth="16201" windowHeight="9982" firstSheet="1" activeTab="3" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="1343" yWindow="1605" windowWidth="16200" windowHeight="9983" firstSheet="1" activeTab="3" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
@@ -4839,7 +4839,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D35B4F5-0420-44A1-89EF-AE3BEC9964B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A637C4-DB74-41AD-ABE4-57EAD136DB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
@@ -35,28 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3743,7 +3721,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4024,8 +4002,7 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">B6:N23</f>
+      <c r="N6">
         <v>0</v>
       </c>
     </row>
@@ -4113,8 +4090,7 @@
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">B8:N23</f>
+      <c r="N8">
         <v>0</v>
       </c>
     </row>
@@ -4202,8 +4178,7 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">B10:N23</f>
+      <c r="N10">
         <v>0</v>
       </c>
     </row>
@@ -4379,8 +4354,7 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">B14:N23</f>
+      <c r="N14">
         <v>0</v>
       </c>
     </row>
@@ -4468,8 +4442,7 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">B16:N23</f>
+      <c r="N16">
         <v>0</v>
       </c>
     </row>
@@ -4557,8 +4530,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">B18:N23</f>
+      <c r="N18">
         <v>0</v>
       </c>
     </row>
@@ -4646,8 +4618,7 @@
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20" cm="1">
-        <f t="array" aca="1" ref="N20" ca="1">B20:N23</f>
+      <c r="N20">
         <v>0</v>
       </c>
     </row>
@@ -4735,8 +4706,7 @@
       <c r="M22">
         <v>1</v>
       </c>
-      <c r="N22" cm="1">
-        <f t="array" aca="1" ref="N22" ca="1">B22:N23</f>
+      <c r="N22">
         <v>0</v>
       </c>
     </row>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A637C4-DB74-41AD-ABE4-57EAD136DB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A561595C-F713-4445-A123-BC54D467FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
-    <sheet name="High_School_Units" sheetId="5" r:id="rId3"/>
+    <sheet name="High School Units" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3721,7 +3721,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A561595C-F713-4445-A123-BC54D467FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4C764-6E22-42F2-A7CA-39BBE30E4DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>science</t>
   </si>
   <si>
-    <t xml:space="preserve">lab </t>
-  </si>
-  <si>
     <t>foreign-language</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>social-studies</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
 </sst>
 </file>
@@ -3721,7 +3721,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3730,7 +3730,7 @@
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -3756,34 +3756,34 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4C764-6E22-42F2-A7CA-39BBE30E4DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB3AF1-7950-4CE7-9793-A8830CFD1E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
@@ -3721,7 +3721,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4132,15 +4132,15 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4176,15 +4176,15 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4220,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4246,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4264,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4352,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4396,10 +4396,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4425,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4440,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -4484,15 +4484,15 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4516,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -4572,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -4607,19 +4607,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -4660,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -4698,16 +4698,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -4748,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB3AF1-7950-4CE7-9793-A8830CFD1E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD36AD-D19E-4472-BDC9-34933981F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
     <sheet name="High School Units" sheetId="5" r:id="rId3"/>
+    <sheet name="Admission_General" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>full-time</t>
   </si>
@@ -152,6 +153,54 @@
   </si>
   <si>
     <t>lab</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>applied</t>
+  </si>
+  <si>
+    <t>admitted</t>
+  </si>
+  <si>
+    <t>enrolled</t>
+  </si>
+  <si>
+    <t>waiting-list-policy</t>
+  </si>
+  <si>
+    <t>offered-list</t>
+  </si>
+  <si>
+    <t>accepted-list</t>
+  </si>
+  <si>
+    <t>admitted-list</t>
+  </si>
+  <si>
+    <t>list-rank</t>
+  </si>
+  <si>
+    <t>completion-requirement</t>
+  </si>
+  <si>
+    <t>college-preparatory-program</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>High school diploma is required and GED is not accepted</t>
+  </si>
+  <si>
+    <t>Require</t>
   </si>
 </sst>
 </file>
@@ -3721,7 +3770,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4752,6 +4801,821 @@
       </c>
       <c r="N23">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D92F9-2667-4F70-8B43-5914DFB5D4D2}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3338</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1038</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2502</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>851</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>401</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>145</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -1,45 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD36AD-D19E-4472-BDC9-34933981F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E5DA46-47E1-41D4-9BC5-B39F28AEA159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
-    <sheet name="High School Units" sheetId="5" r:id="rId3"/>
-    <sheet name="Admission_General" sheetId="6" r:id="rId4"/>
+    <sheet name="High School Units" sheetId="3" r:id="rId3"/>
+    <sheet name="Admission_General" sheetId="4" r:id="rId4"/>
+    <sheet name="basis for selection" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
   <si>
     <t>full-time</t>
   </si>
@@ -47,6 +41,12 @@
     <t>part-time</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>degree-seeking</t>
   </si>
   <si>
@@ -65,57 +65,42 @@
     <t>non-first-year</t>
   </si>
   <si>
+    <t>first-time</t>
+  </si>
+  <si>
+    <t>non-first-time</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
+    <t>nonresident-alien</t>
+  </si>
+  <si>
     <t>hispanic</t>
   </si>
   <si>
+    <t>african-american</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>american-indian</t>
+  </si>
+  <si>
     <t>asian</t>
   </si>
   <si>
+    <t>pacific-islander</t>
+  </si>
+  <si>
+    <t>two or more races</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>first-time</t>
-  </si>
-  <si>
-    <t>non-first-time</t>
-  </si>
-  <si>
-    <t>nonresident-alien</t>
-  </si>
-  <si>
-    <t>american-indian</t>
-  </si>
-  <si>
-    <t>pacific-islander</t>
-  </si>
-  <si>
-    <t>graduate</t>
-  </si>
-  <si>
-    <t>undergraduate</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>two or more races</t>
-  </si>
-  <si>
-    <t>african-american</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
@@ -125,9 +110,15 @@
     <t>science</t>
   </si>
   <si>
+    <t>lab</t>
+  </si>
+  <si>
     <t>foreign-language</t>
   </si>
   <si>
+    <t>social-studies</t>
+  </si>
+  <si>
     <t>history</t>
   </si>
   <si>
@@ -149,12 +140,6 @@
     <t>units-recommended</t>
   </si>
   <si>
-    <t>social-studies</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
     <t>women</t>
   </si>
   <si>
@@ -201,19 +186,96 @@
   </si>
   <si>
     <t>Require</t>
+  </si>
+  <si>
+    <t>rigor of secondary school record</t>
+  </si>
+  <si>
+    <t>class rank</t>
+  </si>
+  <si>
+    <t>academic gpa</t>
+  </si>
+  <si>
+    <t>standardized test scores</t>
+  </si>
+  <si>
+    <t>application essays</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>interviews</t>
+  </si>
+  <si>
+    <t>extracurricular activities</t>
+  </si>
+  <si>
+    <t>talent/ability</t>
+  </si>
+  <si>
+    <t>character/personal qualities</t>
+  </si>
+  <si>
+    <t>first generation</t>
+  </si>
+  <si>
+    <t>alumni/ae relation</t>
+  </si>
+  <si>
+    <t>geographical residence</t>
+  </si>
+  <si>
+    <t>religious affiliation/commitment</t>
+  </si>
+  <si>
+    <t>racial/ethnic status</t>
+  </si>
+  <si>
+    <t>volunteer work</t>
+  </si>
+  <si>
+    <t>work experience</t>
+  </si>
+  <si>
+    <t>level of applicant's interest</t>
+  </si>
+  <si>
+    <t>very important</t>
+  </si>
+  <si>
+    <t>considerd</t>
+  </si>
+  <si>
+    <t>considered</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>not considerd</t>
+  </si>
+  <si>
+    <t>state residency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,10 +286,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -236,8 +324,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224585FE-606B-4F40-9ACE-2F85812D2681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -568,43 +662,43 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -613,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -2622,7 +2716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2649,43 +2743,43 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -2694,10 +2788,10 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,10 +3860,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8EDBC5-1947-42D8-8612-3F660123C619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3887,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -3805,34 +3899,34 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -4809,10 +4903,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D92F9-2667-4F70-8B43-5914DFB5D4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4820,10 +4914,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
@@ -4841,10 +4935,10 @@
         <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
         <v>43</v>
@@ -5621,4 +5715,1278 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC4691-E382-436F-9E5D-0B3E14429580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A1146E-0A32-4725-97E5-BE51F06FFBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="High School Units" sheetId="3" r:id="rId3"/>
     <sheet name="Admission_General" sheetId="4" r:id="rId4"/>
     <sheet name="Basis For Selection" sheetId="5" r:id="rId5"/>
+    <sheet name="Freshman Profile_percentile" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>Value</t>
   </si>
@@ -258,13 +259,115 @@
   </si>
   <si>
     <t>not considerd</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>25th percentile</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>application essay</t>
+  </si>
+  <si>
+    <t>50th percentile</t>
+  </si>
+  <si>
+    <t>75th percentile</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>65.9%</t>
+  </si>
+  <si>
+    <t>55.7%</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,11 +379,17 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +400,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -325,11 +434,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -338,6 +462,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -657,7 +784,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2727,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,7 +2984,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2963,7 +3090,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3069,7 +3196,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3175,7 +3302,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1295</v>
+        <v>939</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3281,7 +3408,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3387,7 +3514,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3599,7 +3726,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3705,7 +3832,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3869,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4115,7 +4242,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4151,15 +4278,15 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4171,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4195,15 +4322,15 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4212,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4283,15 +4410,15 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4306,10 +4433,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4327,15 +4454,15 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4371,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4397,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4415,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4459,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4503,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4547,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4576,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4591,15 +4718,15 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4635,15 +4762,15 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4667,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4679,10 +4806,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -4723,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -4758,19 +4885,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -4811,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -4849,59 +4976,15 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
         <v>0</v>
       </c>
     </row>
@@ -4914,7 +4997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -5733,7 +5816,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7004,4 +7087,1647 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A1146E-0A32-4725-97E5-BE51F06FFBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76763C7-C676-4F6D-A0C8-3AD4219333DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -783,16 +783,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4998,12 +4998,14 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -7093,11 +7095,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76763C7-C676-4F6D-A0C8-3AD4219333DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC100C27-42DB-4D11-B003-6A4986DA52EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>Value</t>
   </si>
@@ -135,12 +135,6 @@
     <t>others</t>
   </si>
   <si>
-    <t>units-required</t>
-  </si>
-  <si>
-    <t>units-recommended</t>
-  </si>
-  <si>
     <t>women</t>
   </si>
   <si>
@@ -361,6 +355,15 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -3996,10 +3999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4018,9 +4021,10 @@
     <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4058,13 +4062,16 @@
         <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4105,10 +4112,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4146,13 +4156,16 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4193,10 +4206,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4234,13 +4250,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4278,13 +4297,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4325,10 +4347,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4369,10 +4394,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4410,13 +4438,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4457,10 +4488,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4498,13 +4532,16 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4545,10 +4582,13 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4586,13 +4626,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4633,10 +4676,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4674,13 +4720,16 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4721,10 +4770,13 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4762,13 +4814,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4809,10 +4864,13 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4850,13 +4908,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4897,10 +4958,13 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4938,13 +5002,16 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4985,6 +5052,9 @@
         <v>1</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
     </row>
@@ -5016,19 +5086,19 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -5037,25 +5107,25 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -5460,7 +5530,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5660,7 +5730,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5710,7 +5780,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5760,7 +5830,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5850,66 +5920,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5971,7 +6041,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6033,7 +6103,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6095,7 +6165,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6157,7 +6227,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6219,7 +6289,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6281,7 +6351,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6343,7 +6413,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6405,7 +6475,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6467,7 +6537,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6529,7 +6599,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6591,7 +6661,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6653,7 +6723,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6715,7 +6785,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6777,7 +6847,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6839,7 +6909,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6901,7 +6971,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6963,7 +7033,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7025,7 +7095,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7121,40 +7191,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>25</v>
@@ -7162,7 +7232,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7206,7 +7276,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7250,7 +7320,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7294,7 +7364,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7338,7 +7408,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7382,7 +7452,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7426,7 +7496,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7470,7 +7540,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7514,7 +7584,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7558,7 +7628,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7602,7 +7672,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7646,7 +7716,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7690,7 +7760,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7734,7 +7804,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7778,7 +7848,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7822,7 +7892,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7866,7 +7936,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7910,7 +7980,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7954,7 +8024,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7998,7 +8068,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8042,7 +8112,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8086,7 +8156,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -8130,7 +8200,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -8174,7 +8244,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -8218,7 +8288,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8262,7 +8332,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -8306,7 +8376,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -8350,7 +8420,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8394,7 +8464,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8438,7 +8508,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8482,7 +8552,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8526,7 +8596,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8570,7 +8640,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8614,7 +8684,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8658,7 +8728,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8702,7 +8772,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>1</v>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76763C7-C676-4F6D-A0C8-3AD4219333DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE8297E-5E66-4256-AE09-73A9B54C8113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -390,6 +390,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -783,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -7095,7 +7096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatBot\rhit_IRPA_2023\CDSData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB6795-AD96-4EC2-89BC-737F4D4087A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB89BEB5-3DEF-4B76-B657-43F677E0BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="2355" windowWidth="28800" windowHeight="15435" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="204">
   <si>
     <t>Value</t>
   </si>
@@ -567,37 +567,7 @@
     <t>Application_Fee</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Waived</t>
-  </si>
-  <si>
-    <t>Online_Application_Fee_Fee_Waived</t>
-  </si>
-  <si>
-    <t>Reply_policy</t>
-  </si>
-  <si>
-    <t>Deferred_policy</t>
-  </si>
-  <si>
-    <t>Early_Admission</t>
-  </si>
-  <si>
-    <t>Early_Decision</t>
-  </si>
-  <si>
-    <t>Early_Action</t>
-  </si>
-  <si>
-    <t>Closing</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>Noverber 1</t>
@@ -641,6 +611,36 @@
   <si>
     <t>Rose-hulman does not allow high school students to enroll as full-time, first-time,
 first-year (freshman) students one year or more before high school graduation</t>
+  </si>
+  <si>
+    <t>closing-date</t>
+  </si>
+  <si>
+    <t>notification_date</t>
+  </si>
+  <si>
+    <t>Rose-hulman has application fee</t>
+  </si>
+  <si>
+    <t>online-application-fee</t>
+  </si>
+  <si>
+    <t>priority-date</t>
+  </si>
+  <si>
+    <t>early-admission</t>
+  </si>
+  <si>
+    <t>defer-policy</t>
+  </si>
+  <si>
+    <t>reply-policy</t>
+  </si>
+  <si>
+    <t>early-decision</t>
+  </si>
+  <si>
+    <t>early-action</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,15 +1024,15 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>387</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>143</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1082</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>329</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1478</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>474</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1478</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>474</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>18</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>7</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3095,25 +3095,25 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="13.73046875" customWidth="1"/>
+    <col min="13" max="13" width="18.3984375" customWidth="1"/>
+    <col min="14" max="14" width="14.265625" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" customWidth="1"/>
+    <col min="16" max="16" width="10.1328125" customWidth="1"/>
+    <col min="17" max="17" width="13.1328125" customWidth="1"/>
+    <col min="18" max="18" width="10.1328125" customWidth="1"/>
+    <col min="19" max="19" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>36</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>190</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>34</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>70</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>31</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>62</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>356</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>939</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>36</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>91</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>31</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>68</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>531</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1969</v>
       </c>
@@ -4239,26 +4239,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5305,15 +5305,15 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" customWidth="1"/>
+    <col min="15" max="15" width="24.86328125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3338</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1038</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2502</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>851</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>401</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>145</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>119</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>43</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>14</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -6126,9 +6126,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -7381,9 +7381,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -9133,9 +9133,9 @@
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -12328,9 +12328,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -13453,15 +13453,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EB110-44C5-4921-8398-A059E3B5F6AC}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13472,49 +13472,46 @@
         <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" t="s">
         <v>187</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>188</v>
       </c>
-      <c r="H1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>60</v>
       </c>
@@ -13522,10 +13519,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -13563,13 +13560,10 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -13616,22 +13610,19 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -13669,25 +13660,22 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>60</v>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>185</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13722,22 +13710,19 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -13775,13 +13760,10 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -13796,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13828,11 +13810,8 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -13855,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -13870,24 +13849,21 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -13902,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -13926,234 +13902,219 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="285" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>192</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="345" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>201</v>
-      </c>
       <c r="B14">
         <v>0</v>
       </c>
@@ -14197,62 +14158,6 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
         <v>0</v>
       </c>
     </row>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F4510-0F6E-4A02-8699-57ED347F203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B514B586-E21C-47AA-9555-215D49958FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,17 @@
     <sheet name="freshman profile_percentile" sheetId="6" r:id="rId6"/>
     <sheet name="freshman profile_sat act score " sheetId="7" r:id="rId7"/>
     <sheet name="freshman profile_class rank gpa" sheetId="8" r:id="rId8"/>
-    <sheet name="transfer admission_general" sheetId="13" r:id="rId9"/>
-    <sheet name="transfer admission_policies" sheetId="14" r:id="rId10"/>
+    <sheet name="transfer admission_general" sheetId="9" r:id="rId9"/>
+    <sheet name="transfer admission_policies" sheetId="10" r:id="rId10"/>
+    <sheet name="student life_categories" sheetId="11" r:id="rId11"/>
+    <sheet name="student life_offered" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="271">
   <si>
     <t>Value</t>
   </si>
@@ -190,6 +192,9 @@
     <t>Require</t>
   </si>
   <si>
+    <t>within</t>
+  </si>
+  <si>
     <t>rigor of secondary school records</t>
   </si>
   <si>
@@ -280,12 +285,12 @@
     <t>percent</t>
   </si>
   <si>
+    <t>composite</t>
+  </si>
+  <si>
     <t>25th percentile</t>
   </si>
   <si>
-    <t>composite</t>
-  </si>
-  <si>
     <t>reading</t>
   </si>
   <si>
@@ -481,6 +486,9 @@
     <t>0.7%</t>
   </si>
   <si>
+    <t>graduation</t>
+  </si>
+  <si>
     <t>top tenth</t>
   </si>
   <si>
@@ -496,6 +504,9 @@
     <t>bottom quarter</t>
   </si>
   <si>
+    <t>between</t>
+  </si>
+  <si>
     <t>4.00</t>
   </si>
   <si>
@@ -523,22 +534,22 @@
     <t>below 1.0</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.46</t>
+    <t>average</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>46%</t>
   </si>
   <si>
     <t>60.1% (303/504)</t>
@@ -568,6 +579,9 @@
     <t>enroll transfer student</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
@@ -583,18 +597,21 @@
     <t>minimum</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>measure</t>
+    <t>minimum number of</t>
+  </si>
+  <si>
+    <t>credit and</t>
+  </si>
+  <si>
+    <t>unit of measure</t>
+  </si>
+  <si>
+    <t>transcript</t>
   </si>
   <si>
     <t>high school</t>
   </si>
   <si>
-    <t>transcript</t>
-  </si>
-  <si>
     <t>college</t>
   </si>
   <si>
@@ -613,9 +630,6 @@
     <t>policy</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>Rose-Hulman does enroll transfer students</t>
   </si>
   <si>
@@ -640,6 +654,9 @@
     <t>Transfer students may enroll during the fall term.</t>
   </si>
   <si>
+    <t>Transfer students do not need to have minimum number of credit completed</t>
+  </si>
+  <si>
     <t>High school transcript is recommended of some for transfer admission.</t>
   </si>
   <si>
@@ -652,6 +669,9 @@
     <t>Interview is recommended of some to apply for transfer admission</t>
   </si>
   <si>
+    <t>Standarized test score is not required</t>
+  </si>
+  <si>
     <t>Statement of good standing from prior institutions is recommended of all transfer applicants.</t>
   </si>
   <si>
@@ -667,16 +687,19 @@
     <t>No, open admission policy does not apply to students</t>
   </si>
   <si>
+    <t xml:space="preserve">Students must have a semester of calculus, as well as calculus-based physics and chemistry. </t>
+  </si>
+  <si>
     <t>grade</t>
   </si>
   <si>
     <t>maximum</t>
   </si>
   <si>
-    <t>two-year</t>
-  </si>
-  <si>
-    <t>4-year</t>
+    <t>2 year</t>
+  </si>
+  <si>
+    <t>4 year</t>
   </si>
   <si>
     <t>associates</t>
@@ -700,20 +723,134 @@
     <t>Credits to be transferred are reviewed by each department and the final decision to award credit is up to the appropriate department chairs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transfer students do not need to have minimum number of credits completed </t>
-  </si>
-  <si>
-    <t>Standarized test score is not required for transfer admission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer students must have a semester of calculus, as well as calculus-based physics and chemistry. </t>
+    <t>out of state</t>
+  </si>
+  <si>
+    <t>fraternity</t>
+  </si>
+  <si>
+    <t>sorority</t>
+  </si>
+  <si>
+    <t>owned</t>
+  </si>
+  <si>
+    <t>operated</t>
+  </si>
+  <si>
+    <t>affiliate</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>off campus or</t>
+  </si>
+  <si>
+    <t>commute</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>25 and older</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>full-time and</t>
+  </si>
+  <si>
+    <t>70.7%</t>
+  </si>
+  <si>
+    <t>66.1%</t>
+  </si>
+  <si>
+    <t>22.9%</t>
+  </si>
+  <si>
+    <t>32.5%</t>
+  </si>
+  <si>
+    <t>35.5%</t>
+  </si>
+  <si>
+    <t>93.0%</t>
+  </si>
+  <si>
+    <t>57.8%</t>
+  </si>
+  <si>
+    <t>7.0%</t>
+  </si>
+  <si>
+    <t>42.2%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>The average age of full-time freshman students is 18.1</t>
+  </si>
+  <si>
+    <t>The average age of full-time undergraduate student is 19.7</t>
+  </si>
+  <si>
+    <t>The average age of all (full-time and part-time) freshman students is 18.1</t>
+  </si>
+  <si>
+    <t>The average age of all (full-time and part-time) undergraduate students is 18.1</t>
+  </si>
+  <si>
+    <t>army</t>
+  </si>
+  <si>
+    <t>rotc</t>
+  </si>
+  <si>
+    <t>navy</t>
+  </si>
+  <si>
+    <t>air force</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>college-owned</t>
+  </si>
+  <si>
+    <t>The activities that Rose-Hulman offers include the following: campus ministries, choral groups, concert bands, dance, drama/theater, international student organizations, jazz band, music ensembles, musical theater, pep band, radio station, student governement, student newspaper, and symphony orchestra</t>
+  </si>
+  <si>
+    <t>Army ROTC is offerd on campus</t>
+  </si>
+  <si>
+    <t>Naval ROTC is not offered at Rose-Hulman</t>
+  </si>
+  <si>
+    <t>Air Force ROTC is offered on campus</t>
+  </si>
+  <si>
+    <t>The type of college-owned, -operated, or -affiliated housing available include the following: coed dorms, men's dorms, apartment for single students, fraternity/sorority housing, and theme housing</t>
+  </si>
+  <si>
+    <t>affiliated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +862,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -762,9 +905,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3151,12 +3303,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3165,65 +3315,1731 @@
     <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>179</v>
+        <v>234</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>218</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3250,27 +5066,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>219</v>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3288,9 +5104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>219</v>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3308,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3326,24 +5142,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>220</v>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3352,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3364,12 +5180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>221</v>
+    <row r="6" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3384,59 +5200,21 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
         <v>1</v>
       </c>
     </row>
@@ -5660,7 +7438,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6478,13 +8256,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6545,16 +8348,19 @@
       <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6607,19 +8413,22 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6669,22 +8478,25 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6731,13 +8543,16 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6746,10 +8561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6793,137 +8608,146 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6941,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6979,13 +8803,16 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7006,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7041,13 +8868,16 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7071,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -7103,13 +8933,16 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -7136,10 +8969,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -7165,13 +8998,16 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7201,10 +9037,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -7227,13 +9063,16 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7266,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -7289,13 +9128,16 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7331,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -7351,13 +9193,16 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -7396,10 +9241,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -7413,13 +9258,16 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -7461,10 +9309,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7475,13 +9323,16 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -7526,10 +9377,10 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7537,13 +9388,16 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7591,21 +9445,24 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -7656,18 +9513,21 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -7721,6 +9581,9 @@
         <v>0</v>
       </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>1</v>
       </c>
     </row>
@@ -7733,52 +9596,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>25</v>
@@ -7786,7 +9667,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7833,7 +9714,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7880,7 +9761,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7927,7 +9808,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7974,7 +9855,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8021,7 +9902,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8036,10 +9917,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8068,7 +9949,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8083,10 +9964,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8115,7 +9996,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8130,10 +10011,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8162,7 +10043,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8177,10 +10058,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8209,7 +10090,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8256,7 +10137,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8303,7 +10184,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8350,7 +10231,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8365,10 +10246,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8397,7 +10278,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8444,7 +10325,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8491,7 +10372,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8538,7 +10419,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8553,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -8585,7 +10466,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8632,7 +10513,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8679,7 +10560,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8726,7 +10607,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8773,7 +10654,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8788,10 +10669,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -8820,7 +10701,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8835,10 +10716,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -8867,7 +10748,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8882,10 +10763,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -8914,7 +10795,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8929,10 +10810,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -8961,7 +10842,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9008,7 +10889,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -9055,7 +10936,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -9102,7 +10983,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9117,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -9149,7 +11030,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -9196,7 +11077,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9243,7 +11124,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -9290,7 +11171,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9305,10 +11186,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -9337,7 +11218,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9384,7 +11265,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9431,7 +11312,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9478,44 +11359,68 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>115</v>
@@ -9551,16 +11456,16 @@
         <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>127</v>
@@ -9574,10 +11479,13 @@
       <c r="AB1" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9598,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9660,34 +11568,37 @@
       <c r="AB2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -9746,10 +11657,13 @@
       <c r="AB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9770,13 +11684,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -9832,28 +11746,31 @@
       <c r="AB4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -9862,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9918,10 +11835,13 @@
       <c r="AB5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -9942,16 +11862,16 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -10004,40 +11924,43 @@
       <c r="AB6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -10090,10 +12013,13 @@
       <c r="AB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10114,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -10123,10 +12049,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -10176,43 +12102,46 @@
       <c r="AB8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -10262,10 +12191,13 @@
       <c r="AB9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -10286,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -10298,10 +12230,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10348,34 +12280,37 @@
       <c r="AB10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10384,10 +12319,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -10434,10 +12369,13 @@
       <c r="AB11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -10458,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -10473,10 +12411,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -10520,34 +12458,37 @@
       <c r="AB12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -10559,10 +12500,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -10606,289 +12547,301 @@
       <c r="AB13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>137</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -10918,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10950,31 +12903,34 @@
       <c r="AB17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -11007,10 +12963,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -11036,31 +12992,34 @@
       <c r="AB18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -11096,10 +13055,10 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -11122,16 +13081,19 @@
       <c r="AB19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -11140,10 +13102,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -11185,13 +13147,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -11208,16 +13170,19 @@
       <c r="AB20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -11226,10 +13191,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -11271,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -11280,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -11294,16 +13259,19 @@
       <c r="AB21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -11312,16 +13280,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -11357,13 +13325,13 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -11380,16 +13348,19 @@
       <c r="AB22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -11398,10 +13369,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -11443,19 +13414,19 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -11466,16 +13437,19 @@
       <c r="AB23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -11484,10 +13458,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -11529,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -11541,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -11552,16 +13526,19 @@
       <c r="AB24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -11570,16 +13547,16 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -11615,19 +13592,19 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -11638,16 +13615,19 @@
       <c r="AB25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -11656,10 +13636,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -11701,22 +13681,22 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -11724,16 +13704,19 @@
       <c r="AB26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -11742,10 +13725,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -11787,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -11796,13 +13779,13 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -11810,16 +13793,19 @@
       <c r="AB27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -11828,16 +13814,16 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -11873,22 +13859,22 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -11896,16 +13882,19 @@
       <c r="AB28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -11914,10 +13903,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -11959,13 +13948,13 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -11974,24 +13963,27 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -12000,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -12045,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -12054,30 +14046,33 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -12086,16 +14081,16 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -12131,13 +14126,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -12146,24 +14141,27 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -12172,10 +14170,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -12217,13 +14215,13 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -12235,21 +14233,24 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -12258,10 +14259,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -12303,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -12312,7 +14313,7 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -12321,21 +14322,24 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -12344,16 +14348,16 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -12389,13 +14393,13 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -12407,21 +14411,24 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -12430,10 +14437,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -12475,13 +14482,13 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -12496,18 +14503,21 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -12516,10 +14526,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -12561,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -12570,7 +14580,7 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -12582,18 +14592,21 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -12602,16 +14615,16 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -12647,13 +14660,13 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -12668,6 +14681,9 @@
         <v>0</v>
       </c>
       <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <v>1</v>
       </c>
     </row>
@@ -12678,24 +14694,44 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>152</v>
@@ -12707,22 +14743,22 @@
         <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>158</v>
@@ -12743,12 +14779,21 @@
         <v>163</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12757,10 +14802,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12807,16 +14852,25 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -12825,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -12869,28 +14923,37 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12931,31 +14994,40 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -12993,19 +15065,28 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -13014,13 +15095,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -13055,19 +15136,28 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13079,16 +15169,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -13117,19 +15207,28 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13147,19 +15246,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -13179,19 +15278,28 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -13209,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -13218,13 +15326,13 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -13241,19 +15349,28 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -13271,13 +15388,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -13289,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -13303,19 +15420,28 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -13333,19 +15459,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -13354,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -13365,19 +15491,28 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -13395,22 +15530,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -13419,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -13427,19 +15562,28 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -13457,16 +15601,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -13475,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -13484,24 +15628,33 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -13519,16 +15672,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -13540,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -13549,21 +15702,30 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -13581,16 +15743,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -13605,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -13613,19 +15775,28 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -13643,16 +15814,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -13670,15 +15841,24 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13699,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -13714,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -13735,21 +15915,30 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -13761,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -13776,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -13797,6 +15986,15 @@
         <v>0</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>0</v>
       </c>
     </row>
@@ -13806,134 +16004,108 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AB22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14016,10 +16188,16 @@
       <c r="AB2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -14034,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -14102,10 +16280,16 @@
       <c r="AB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -14120,13 +16304,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -14188,10 +16372,16 @@
       <c r="AB4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -14206,16 +16396,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -14274,10 +16464,16 @@
       <c r="AB5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -14292,19 +16488,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -14360,10 +16556,16 @@
       <c r="AB6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -14381,19 +16583,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -14446,10 +16648,16 @@
       <c r="AB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -14470,16 +16678,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -14532,10 +16740,16 @@
       <c r="AB8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -14559,13 +16773,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -14618,10 +16832,16 @@
       <c r="AB9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -14645,16 +16865,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -14704,19 +16924,25 @@
       <c r="AB10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -14740,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -14755,10 +16981,10 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -14790,10 +17016,16 @@
       <c r="AB11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -14826,10 +17058,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -14841,16 +17073,16 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -14876,10 +17108,16 @@
       <c r="AB12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -14912,10 +17150,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -14930,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -14939,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -14962,10 +17200,16 @@
       <c r="AB13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -14998,10 +17242,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -15022,13 +17266,13 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -15048,10 +17292,16 @@
       <c r="AB14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -15084,10 +17334,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -15111,13 +17361,13 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -15134,10 +17384,16 @@
       <c r="AB15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -15170,10 +17426,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -15200,13 +17456,13 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -15220,10 +17476,16 @@
       <c r="AB16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -15256,10 +17518,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -15289,13 +17551,13 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -15306,10 +17568,16 @@
       <c r="AB17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -15342,13 +17610,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -15357,7 +17625,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -15366,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -15378,24 +17646,30 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -15428,13 +17702,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -15449,13 +17723,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -15464,24 +17738,30 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -15553,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -15562,12 +17842,18 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -15585,10 +17871,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -15642,24 +17928,30 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -15686,10 +17978,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -15734,7 +18026,13 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\rhit_IRPA_2023\CDSData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB89BEB5-3DEF-4B76-B657-43F677E0BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0D8A16-6B3C-4457-84F9-D4E40471B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="freshman profile_percentile" sheetId="6" r:id="rId6"/>
     <sheet name="freshman profile_sat act score " sheetId="7" r:id="rId7"/>
     <sheet name="freshman profile_class rank gpa" sheetId="8" r:id="rId8"/>
-    <sheet name="Admission_policies" sheetId="9" r:id="rId9"/>
+    <sheet name="admission_policies" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="206">
   <si>
     <t>Value</t>
   </si>
@@ -564,30 +564,6 @@
     <t>94.9 % (504/531)</t>
   </si>
   <si>
-    <t>Application_Fee</t>
-  </si>
-  <si>
-    <t>Waived</t>
-  </si>
-  <si>
-    <t>Noverber 1</t>
-  </si>
-  <si>
-    <t>We have an application closing date, which is February 1</t>
-  </si>
-  <si>
-    <t>Notification date for early action is December 15, for regular decision is March 15</t>
-  </si>
-  <si>
-    <t>Must reply by May 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application fee for applicants with financial need can be waived </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Application fee for applicants with financial need can be waived </t>
-  </si>
-  <si>
     <t>term</t>
   </si>
   <si>
@@ -597,63 +573,98 @@
     <t>fall</t>
   </si>
   <si>
-    <t>Rose-hulman allows students, the maximum period of postponement is 1 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> first-time first-year students can accepted for terms other than fall with special permission</t>
-  </si>
-  <si>
-    <t>Rose-Hulman does not accept early decision</t>
-  </si>
-  <si>
-    <t>Rose-hulman accepts early action, the Early action closing is November 1, notification date is December 15. There's no restrictive plan for early action.</t>
-  </si>
-  <si>
-    <t>Rose-hulman does not allow high school students to enroll as full-time, first-time,
+    <t>application fee</t>
+  </si>
+  <si>
+    <t>waived</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>applicants</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>closing</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>reply</t>
+  </si>
+  <si>
+    <t>defer</t>
+  </si>
+  <si>
+    <t>early admission</t>
+  </si>
+  <si>
+    <t>high school</t>
+  </si>
+  <si>
+    <t>early decision</t>
+  </si>
+  <si>
+    <t>early action</t>
+  </si>
+  <si>
+    <t>Rose-Hulman have an application fee of 60 dollars</t>
+  </si>
+  <si>
+    <t>Application can be waived for applicants with financial need</t>
+  </si>
+  <si>
+    <t>The application fee for online applicants is the same as the normal application fee of 60 dollars.</t>
+  </si>
+  <si>
+    <t>Students can be accepted for terms other than the fall with special permission.</t>
+  </si>
+  <si>
+    <t>Admission decision for early decision is sent by December 15th. Regular decision is March 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicants must reply to admission decision by May 1. The deadline for housing deposit is not available. </t>
+  </si>
+  <si>
+    <t>Students can postpone their enrollment after admission</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does not allow high school students to enroll as full-time, first-time,
 first-year (freshman) students one year or more before high school graduation</t>
   </si>
   <si>
-    <t>closing-date</t>
-  </si>
-  <si>
-    <t>notification_date</t>
-  </si>
-  <si>
-    <t>Rose-hulman has application fee</t>
-  </si>
-  <si>
-    <t>online-application-fee</t>
-  </si>
-  <si>
-    <t>priority-date</t>
-  </si>
-  <si>
-    <t>early-admission</t>
-  </si>
-  <si>
-    <t>defer-policy</t>
-  </si>
-  <si>
-    <t>reply-policy</t>
-  </si>
-  <si>
-    <t>early-decision</t>
-  </si>
-  <si>
-    <t>early-action</t>
+    <t>Rose-Hulman does not allow early decision</t>
+  </si>
+  <si>
+    <t>Rose-Hulman does have early action. The early action closing date is November 1st and early action notification date is December 15th. Students can still apply to other early action programs after applying for early action at Rose-Hulman.</t>
+  </si>
+  <si>
+    <t>Application closing and priority date for admissions is februrary 1st for regular decision and November 1st for early action</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -669,7 +680,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -692,17 +703,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,15 +1053,15 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="15.3984375" customWidth="1"/>
-    <col min="13" max="13" width="13.86328125" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.59765625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>387</v>
       </c>
@@ -1132,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>143</v>
       </c>
@@ -1182,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1232,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1282,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1332,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1382,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1432,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1482,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1082</v>
       </c>
@@ -1532,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>329</v>
       </c>
@@ -1582,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1632,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1682,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1478</v>
       </c>
@@ -1732,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>474</v>
       </c>
@@ -1782,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1832,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1882,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1932,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1982,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2032,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2082,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1478</v>
       </c>
@@ -2132,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>474</v>
       </c>
@@ -2182,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -2232,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2282,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2332,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2382,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2432,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2482,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2532,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2582,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2632,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2682,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2732,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2782,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2832,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2882,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2932,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2982,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -3032,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3095,25 +3124,25 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.1328125" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" customWidth="1"/>
-    <col min="13" max="13" width="18.3984375" customWidth="1"/>
-    <col min="14" max="14" width="14.265625" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="10.1328125" customWidth="1"/>
-    <col min="17" max="17" width="13.1328125" customWidth="1"/>
-    <col min="18" max="18" width="10.1328125" customWidth="1"/>
-    <col min="19" max="19" width="13.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>36</v>
       </c>
@@ -3219,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>190</v>
       </c>
@@ -3272,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>34</v>
       </c>
@@ -3325,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70</v>
       </c>
@@ -3378,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31</v>
       </c>
@@ -3431,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>62</v>
       </c>
@@ -3484,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>356</v>
       </c>
@@ -3537,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>939</v>
       </c>
@@ -3590,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3643,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3696,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>36</v>
       </c>
@@ -3749,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>91</v>
       </c>
@@ -3802,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3855,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3908,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31</v>
       </c>
@@ -3961,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>68</v>
       </c>
@@ -4014,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4067,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4120,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>531</v>
       </c>
@@ -4173,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1969</v>
       </c>
@@ -4239,26 +4268,26 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4352,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4399,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4446,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4493,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4540,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4587,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4634,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4681,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4728,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4775,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4822,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4869,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4916,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4963,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5010,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5057,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5104,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5151,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5198,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5245,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5305,15 +5334,15 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.73046875" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" customWidth="1"/>
-    <col min="15" max="15" width="24.86328125" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="24.88671875" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3338</v>
       </c>
@@ -5413,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1038</v>
       </c>
@@ -5463,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2502</v>
       </c>
@@ -5513,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>851</v>
       </c>
@@ -5563,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>401</v>
       </c>
@@ -5613,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5663,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>145</v>
       </c>
@@ -5713,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5763,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5813,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>119</v>
       </c>
@@ -5863,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>43</v>
       </c>
@@ -5913,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -5963,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6013,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -6063,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -6126,9 +6155,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6190,7 +6219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -6252,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -6314,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -6376,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -6438,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -6500,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -6562,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -6624,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6686,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -6748,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -6810,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -6872,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -6934,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -6996,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -7058,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -7120,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -7182,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -7244,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -7306,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -7381,9 +7410,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -7477,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -7524,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -7571,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -7618,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -7665,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -7712,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -7759,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -7806,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -7853,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -7900,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -7947,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -7994,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -8041,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -8088,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -8135,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -8182,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -8229,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -8276,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -8323,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -8370,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -8417,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -8464,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -8511,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -8558,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -8605,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -8652,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -8699,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -8746,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -8793,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -8840,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -8887,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -8934,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -8981,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -9028,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -9075,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -9133,9 +9162,9 @@
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9221,7 +9250,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -9307,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -9393,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -9479,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -9565,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -9651,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -9737,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -9823,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -9909,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -9995,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -10081,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -10167,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -10253,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -10339,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -10425,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -10511,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -10597,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -10683,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -10769,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -10855,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -10941,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -11027,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -11113,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -11199,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -11285,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -11371,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -11457,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -11543,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -11629,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -11715,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -11801,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -11887,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -11973,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -12059,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -12145,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -12231,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -12326,11 +12355,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12392,7 +12423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -12454,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -12516,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -12578,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -12640,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -12702,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -12764,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -12826,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -12888,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -12950,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -13012,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -13074,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -13136,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -13198,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -13260,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -13322,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -13384,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -13452,717 +13483,693 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EB110-44C5-4921-8398-A059E3B5F6AC}">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="22" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="285" x14ac:dyDescent="0.45">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6F5CAE-7538-43D3-9BCE-397D5FC4B031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4B5D82-9E38-4F32-B9FE-4968586C83C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enrollment_general" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="348">
   <si>
     <t>Value</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>nan</t>
-  </si>
-  <si>
-    <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] enrolled is &lt;value&gt;</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1075,6 +1072,15 @@
   </si>
   <si>
     <t>american indian</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>The (xor [aggregation] number) of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1423,9 +1429,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="118.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3559,7 +3570,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3630,7 +3641,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3701,7 +3712,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3772,7 +3783,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3843,7 +3854,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3930,46 +3941,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -3992,7 +4003,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4057,7 +4068,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4122,7 +4133,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4187,7 +4198,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4252,7 +4263,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4317,7 +4328,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4512,7 +4523,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4577,7 +4588,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4642,7 +4653,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4707,7 +4718,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4788,49 +4799,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -4853,7 +4864,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4921,7 +4932,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4989,7 +5000,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5057,7 +5068,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5125,7 +5136,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5193,7 +5204,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5261,7 +5272,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5329,7 +5340,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5397,7 +5408,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5465,7 +5476,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5533,7 +5544,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5601,7 +5612,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5805,7 +5816,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5873,7 +5884,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5941,7 +5952,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6009,7 +6020,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6093,61 +6104,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -6170,7 +6181,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6250,7 +6261,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6330,7 +6341,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6410,7 +6421,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6490,7 +6501,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6570,7 +6581,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6650,7 +6661,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6730,7 +6741,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6810,7 +6821,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6890,7 +6901,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6970,7 +6981,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7210,7 +7221,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7290,7 +7301,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7370,7 +7381,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7450,7 +7461,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7546,28 +7557,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
@@ -7590,7 +7601,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7637,7 +7648,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7684,7 +7695,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7731,7 +7742,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7778,7 +7789,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7825,7 +7836,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7966,7 +7977,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8013,7 +8024,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8060,7 +8071,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8107,7 +8118,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8180,67 +8191,67 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>26</v>
@@ -8249,28 +8260,28 @@
         <v>1</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>17</v>
@@ -8290,7 +8301,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8406,7 +8417,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8522,7 +8533,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8638,7 +8649,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8754,7 +8765,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8870,7 +8881,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8986,7 +8997,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9102,7 +9113,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9218,7 +9229,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9334,7 +9345,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9450,7 +9461,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9566,7 +9577,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9682,7 +9693,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9798,7 +9809,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9914,7 +9925,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10030,7 +10041,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10146,7 +10157,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10262,7 +10273,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10378,7 +10389,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10494,7 +10505,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10610,7 +10621,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10842,7 +10853,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10958,7 +10969,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11074,7 +11085,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11190,7 +11201,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11325,10 +11336,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -11357,7 +11368,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11395,7 +11406,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11471,7 +11482,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11509,7 +11520,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11661,7 +11672,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11699,7 +11710,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11737,7 +11748,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11775,7 +11786,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11831,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -11852,61 +11863,61 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>17</v>
@@ -11926,7 +11937,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12024,7 +12035,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -12122,7 +12133,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12220,7 +12231,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -12318,7 +12329,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -12416,7 +12427,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -12514,7 +12525,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12612,7 +12623,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12710,7 +12721,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12808,7 +12819,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -12906,7 +12917,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -13004,7 +13015,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -13102,7 +13113,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -13200,7 +13211,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13298,7 +13309,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13396,7 +13407,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13592,7 +13603,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -13690,7 +13701,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -13788,7 +13799,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -13886,7 +13897,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -14002,40 +14013,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -14055,7 +14066,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14111,7 +14122,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -14167,7 +14178,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -14223,7 +14234,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -14279,7 +14290,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -14391,7 +14402,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -14447,7 +14458,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -14503,7 +14514,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -14559,7 +14570,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -14622,11 +14633,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -14642,40 +14656,40 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -14696,12 +14710,12 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14772,7 +14786,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14843,7 +14857,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14914,7 +14928,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15056,7 +15070,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15198,7 +15212,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -15269,7 +15283,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -15411,7 +15425,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -15482,7 +15496,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -15553,7 +15567,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -15624,7 +15638,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -15695,7 +15709,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -15766,7 +15780,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>345</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -15873,40 +15887,40 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -15927,12 +15941,12 @@
         <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16009,7 +16023,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16086,7 +16100,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -16163,7 +16177,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -16317,7 +16331,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -16471,7 +16485,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -16779,7 +16793,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -16856,7 +16870,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -16933,7 +16947,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -17010,7 +17024,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -17087,7 +17101,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -17186,79 +17200,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>17</v>
@@ -17281,7 +17295,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -17379,7 +17393,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -17477,7 +17491,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -17869,7 +17883,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -17967,7 +17981,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -18065,7 +18079,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -18163,7 +18177,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -18261,7 +18275,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -18359,7 +18373,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -18457,7 +18471,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -18653,7 +18667,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -19045,7 +19059,7 @@
     </row>
     <row r="20" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -19143,7 +19157,7 @@
     </row>
     <row r="21" spans="1:32" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -19241,7 +19255,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -19339,7 +19353,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -19437,7 +19451,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -19535,7 +19549,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -19650,61 +19664,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -19712,7 +19726,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -19777,7 +19791,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -19842,7 +19856,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -19907,7 +19921,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -19972,7 +19986,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -20037,7 +20051,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -20102,7 +20116,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -20167,7 +20181,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -20232,7 +20246,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -20297,7 +20311,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -20362,7 +20376,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -20427,7 +20441,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -20492,7 +20506,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -20557,7 +20571,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -20622,7 +20636,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -20687,7 +20701,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -20752,7 +20766,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -20817,7 +20831,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -20882,7 +20896,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -20947,7 +20961,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -21028,69 +21042,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21155,7 +21169,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -21220,7 +21234,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -21285,7 +21299,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -21350,7 +21364,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -21415,7 +21429,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -21480,7 +21494,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -21545,7 +21559,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -21610,7 +21624,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -21675,7 +21689,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -21740,7 +21754,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -21821,46 +21835,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -21883,7 +21897,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21948,7 +21962,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -22013,7 +22027,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -22078,7 +22092,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -22143,7 +22157,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -22208,7 +22222,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -22273,7 +22287,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22338,7 +22352,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22403,7 +22417,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22468,7 +22482,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -22533,7 +22547,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -22598,7 +22612,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -22663,7 +22677,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -22728,7 +22742,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -22793,7 +22807,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -22858,7 +22872,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -22923,7 +22937,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -22988,7 +23002,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -23053,7 +23067,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -23118,7 +23132,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -23183,7 +23197,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -23248,7 +23262,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -23313,7 +23327,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -23378,7 +23392,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -23443,7 +23457,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -23508,7 +23522,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -23573,7 +23587,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -23638,7 +23652,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -23703,7 +23717,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -23768,7 +23782,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -23833,7 +23847,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -23898,7 +23912,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -23963,7 +23977,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -24028,7 +24042,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -24093,7 +24107,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -24158,7 +24172,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -24353,7 +24367,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -24418,7 +24432,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -24483,7 +24497,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -24548,7 +24562,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -24629,52 +24643,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -24697,7 +24711,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -24768,7 +24782,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -24839,7 +24853,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -24910,7 +24924,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -24981,7 +24995,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -25052,7 +25066,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -25265,7 +25279,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -25336,7 +25350,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -25407,7 +25421,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -25478,7 +25492,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -25567,58 +25581,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -25641,7 +25655,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -25718,7 +25732,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -25795,7 +25809,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -25872,7 +25886,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -25949,7 +25963,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -26026,7 +26040,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -26103,7 +26117,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -26180,7 +26194,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -26257,7 +26271,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26334,7 +26348,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -26411,7 +26425,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26488,7 +26502,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -26719,7 +26733,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -26796,7 +26810,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -26873,7 +26887,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -26950,7 +26964,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>

--- a/CDSData/CDS_SPARSE_2020_2021.xlsx
+++ b/CDSData/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4B5D82-9E38-4F32-B9FE-4968586C83C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773A52CD-4097-4527-8600-70752B63A24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enrollment_general" sheetId="2" r:id="rId1"/>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4790,9 +4790,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -6095,7 +6100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -24634,9 +24641,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="27.6640625" customWidth="1"/>
+    <col min="22" max="22" width="33.88671875" customWidth="1"/>
+    <col min="23" max="23" width="33.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -25350,7 +25364,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -25571,10 +25585,13 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
